--- a/User Requirements.xlsx
+++ b/User Requirements.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Waterbuffalo Requirements Document</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Visualization</t>
   </si>
   <si>
-    <t>Activity</t>
-  </si>
-  <si>
     <t>• Insert to database</t>
   </si>
   <si>
@@ -70,6 +67,27 @@
   </si>
   <si>
     <t>• Frame correctly</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activity </t>
+  </si>
+  <si>
+    <t>Activity (created_date, hours_expended, start_task, stop_task, task name, task_nature, task_subtype, wellbeing_index)</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>7/8</t>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -187,8 +205,9 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -198,7 +217,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
@@ -502,48 +521,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AB11"/>
+  <dimension ref="B2:AB27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="5"/>
     <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:28" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="4"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -557,48 +578,63 @@
       </c>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="E5" s="4" t="s">
-        <v>17</v>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="E6" s="4" t="s">
-        <v>13</v>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="G6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="E7" s="4" t="s">
-        <v>14</v>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="G7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="E9" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
@@ -610,8 +646,21 @@
       </c>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G11" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
